--- a/documentatie/Logboeken/logboek-sprint1.xlsx
+++ b/documentatie/Logboeken/logboek-sprint1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -28,15 +28,9 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Punten</t>
-  </si>
-  <si>
     <t>Logboek sprint 1</t>
   </si>
   <si>
-    <t>Tijd</t>
-  </si>
-  <si>
     <t>Nick</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>Schetsen op papier van de game</t>
   </si>
   <si>
-    <t>HD</t>
-  </si>
-  <si>
     <t>Jordy</t>
   </si>
   <si>
@@ -86,6 +77,36 @@
   </si>
   <si>
     <t>Quincy, Bas</t>
+  </si>
+  <si>
+    <t>Aanwezigheid</t>
+  </si>
+  <si>
+    <t>Niet aanwezig</t>
+  </si>
+  <si>
+    <t>Bas, Robert</t>
+  </si>
+  <si>
+    <t>Slawek, Quincy</t>
+  </si>
+  <si>
+    <t>Header, CSS opschonen en html</t>
+  </si>
+  <si>
+    <t>Jesse, Nick</t>
+  </si>
+  <si>
+    <t>Activiteitendiagrammen</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Dean, Nick, Jordy</t>
   </si>
 </sst>
 </file>
@@ -120,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -209,11 +230,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -241,9 +273,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -260,6 +289,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -566,23 +616,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="22"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="8" max="8" width="13.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -590,233 +642,251 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="4"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="4"/>
+      <c r="G2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>41964</v>
       </c>
-      <c r="C4" s="11">
-        <v>0.41666666666666669</v>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="23">
+        <v>41964</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <v>41964</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="E5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="23">
+        <v>41967</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <v>41964</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="D6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1001</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="23">
+        <v>41968</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
         <v>41964</v>
       </c>
-      <c r="C5" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1028</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
         <v>41964</v>
       </c>
-      <c r="C6" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1001</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+      <c r="D8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1010</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
         <v>41964</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E9" s="16">
+        <v>1006</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
+        <v>41964</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1004</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>41964</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1003</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
+        <v>41967</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1003</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <v>41967</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <v>41967</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1004</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
+        <v>41967</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="16">
-        <v>1028</v>
-      </c>
-      <c r="G7" s="17">
-        <v>40</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
-        <v>41964</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="16">
-        <v>1010</v>
-      </c>
-      <c r="G8" s="17">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
-        <v>41964</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1006</v>
-      </c>
-      <c r="G9" s="17">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
-        <v>41964</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1004</v>
-      </c>
-      <c r="G10" s="17">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
-        <v>41964</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="16">
-        <v>1003</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="H20" s="2"/>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentatie/Logboeken/logboek-sprint1.xlsx
+++ b/documentatie/Logboeken/logboek-sprint1.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="Blad4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>Datum</t>
   </si>
@@ -43,15 +46,9 @@
     <t>Burndown Chart gemaakt</t>
   </si>
   <si>
-    <t>Robert</t>
-  </si>
-  <si>
     <t>Animatie van het logo</t>
   </si>
   <si>
-    <t>Robert, Jesse</t>
-  </si>
-  <si>
     <t>Schetsen op papier van de game</t>
   </si>
   <si>
@@ -107,6 +104,120 @@
   </si>
   <si>
     <t>Dean, Nick, Jordy</t>
+  </si>
+  <si>
+    <t>dinsdag 25 november 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dean </t>
+  </si>
+  <si>
+    <t>Slider, html css, homepage</t>
+  </si>
+  <si>
+    <t>donderdag 27 november 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slider, html css, homepage </t>
+  </si>
+  <si>
+    <t>vrijdag 28 november 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dropdown menu </t>
+  </si>
+  <si>
+    <t>Robbert</t>
+  </si>
+  <si>
+    <t>Robbert, Jesse</t>
+  </si>
+  <si>
+    <t>Interactieve vlambeer logo</t>
+  </si>
+  <si>
+    <t>Robbert, Bas, Quincy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireframes, game pagina's </t>
+  </si>
+  <si>
+    <t>Animatie van de games</t>
+  </si>
+  <si>
+    <t>Logboek sprint 2</t>
+  </si>
+  <si>
+    <t>Datum:</t>
+  </si>
+  <si>
+    <t>Personen:</t>
+  </si>
+  <si>
+    <t>Omschrijving:</t>
+  </si>
+  <si>
+    <t>Kolom1</t>
+  </si>
+  <si>
+    <t>Kolom2</t>
+  </si>
+  <si>
+    <t>Kolom3</t>
+  </si>
+  <si>
+    <t>Kolom4</t>
+  </si>
+  <si>
+    <t>Kolom5</t>
+  </si>
+  <si>
+    <t>Kolom6</t>
+  </si>
+  <si>
+    <t>Dean, Quincy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game pagina's </t>
+  </si>
+  <si>
+    <t>HTML, CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logboek sprint 3 </t>
+  </si>
+  <si>
+    <t>vakantie:</t>
+  </si>
+  <si>
+    <t>Rust gehouden</t>
+  </si>
+  <si>
+    <t>Logboek sprint 4</t>
+  </si>
+  <si>
+    <t>personen:</t>
+  </si>
+  <si>
+    <t>betaalmogelijkheden onderzoek</t>
+  </si>
+  <si>
+    <t>Admin PHP Pagina's</t>
+  </si>
+  <si>
+    <t>Logboek HTML</t>
+  </si>
+  <si>
+    <t>Begin nieuwe styling toepassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login PHP in aparte pagina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login PHP in aparte pagina  </t>
+  </si>
+  <si>
+    <t>Html, css</t>
   </si>
 </sst>
 </file>
@@ -133,15 +244,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -241,11 +358,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -312,11 +466,23 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -327,6 +493,51 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel4" displayName="Tabel4" ref="C3:H47" totalsRowShown="0">
+  <autoFilter ref="C3:H47"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Kolom1" dataDxfId="0"/>
+    <tableColumn id="2" name="Kolom2"/>
+    <tableColumn id="3" name="Kolom3"/>
+    <tableColumn id="4" name="Kolom4"/>
+    <tableColumn id="5" name="Kolom5"/>
+    <tableColumn id="6" name="Kolom6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel5" displayName="Tabel5" ref="C3:H170" totalsRowShown="0">
+  <autoFilter ref="C3:H170"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Kolom1"/>
+    <tableColumn id="2" name="Kolom2"/>
+    <tableColumn id="3" name="Kolom3"/>
+    <tableColumn id="4" name="Kolom4"/>
+    <tableColumn id="5" name="Kolom5"/>
+    <tableColumn id="6" name="Kolom6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabel6" displayName="Tabel6" ref="D3:I50" totalsRowShown="0">
+  <autoFilter ref="D3:I50"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Kolom1"/>
+    <tableColumn id="2" name="Kolom2"/>
+    <tableColumn id="3" name="Kolom3"/>
+    <tableColumn id="4" name="Kolom4"/>
+    <tableColumn id="5" name="Kolom5"/>
+    <tableColumn id="6" name="Kolom6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,7 +583,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,7 +618,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -616,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +866,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="4"/>
       <c r="G2" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="2"/>
@@ -677,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -719,7 +930,7 @@
         <v>41967</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -727,10 +938,10 @@
         <v>41964</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="E6" s="16">
         <v>1001</v>
@@ -740,7 +951,7 @@
         <v>41968</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -748,10 +959,10 @@
         <v>41964</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="16">
         <v>1028</v>
@@ -763,10 +974,10 @@
         <v>41964</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="16">
         <v>1010</v>
@@ -778,10 +989,10 @@
         <v>41964</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="16">
         <v>1006</v>
@@ -793,10 +1004,10 @@
         <v>41964</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="16">
         <v>1004</v>
@@ -808,10 +1019,10 @@
         <v>41964</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="16">
         <v>1003</v>
@@ -823,10 +1034,10 @@
         <v>41967</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="16">
         <v>1003</v>
@@ -838,10 +1049,10 @@
         <v>41967</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -850,10 +1061,10 @@
         <v>41967</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="16">
         <v>1004</v>
@@ -865,31 +1076,1185 @@
         <v>41967</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
+      <c r="B20" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="8" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="25">
+        <v>41974</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="25">
+        <v>41974</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="25">
+        <v>41974</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="25">
+        <v>41974</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="25">
+        <v>41974</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="25">
+        <v>41975</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="25">
+        <v>41975</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="25">
+        <v>41975</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="25">
+        <v>41975</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="25">
+        <v>41975</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="25">
+        <v>41975</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="25">
+        <v>41977</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="25">
+        <v>41977</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="25">
+        <v>41977</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="25">
+        <v>41977</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="25">
+        <v>41977</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="25">
+        <v>41978</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="25">
+        <v>41978</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="25">
+        <v>41978</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="25">
+        <v>41978</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="25">
+        <v>41978</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="25">
+        <v>41981</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="25">
+        <v>41981</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="25">
+        <v>41981</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="25">
+        <v>41981</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="25">
+        <v>41981</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="25">
+        <v>41981</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="25">
+        <v>41982</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="25">
+        <v>41982</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="25">
+        <v>41982</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="25">
+        <v>41982</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="25">
+        <v>41982</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="25">
+        <v>41984</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="25">
+        <v>41984</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="25">
+        <v>41984</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="25">
+        <v>41984</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="25">
+        <v>41984</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="25">
+        <v>41985</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="25">
+        <v>41985</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="25">
+        <v>41985</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="25">
+        <v>41985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="8" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="25">
+        <v>41988</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="25">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="25">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="25">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="25">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="25">
+        <v>41989</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="25">
+        <v>41989</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="25">
+        <v>41989</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="25">
+        <v>41989</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="25">
+        <v>41989</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="25">
+        <v>41991</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="25">
+        <v>41991</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="25">
+        <v>41991</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="25">
+        <v>41991</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="25">
+        <v>41991</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="25">
+        <v>41992</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="25">
+        <v>41992</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="25">
+        <v>41992</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="25">
+        <v>41992</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="25">
+        <v>41992</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="25">
+        <v>42009</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="25">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="25">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="25">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="25">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="25">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="25">
+        <v>42010</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="25">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="25">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="25">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="25">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="25">
+        <v>42012</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="25">
+        <v>42012</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="25">
+        <v>42012</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="25">
+        <v>42012</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="25">
+        <v>42012</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="25">
+        <v>42013</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="25">
+        <v>42013</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="25">
+        <v>42013</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="25">
+        <v>42013</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="25">
+        <v>42013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:I48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="9" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="30">
+        <v>42016</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="31">
+        <v>42016</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="30">
+        <v>42016</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="31">
+        <v>42016</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="30">
+        <v>42016</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="31">
+        <v>42017</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="30">
+        <v>42017</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="31">
+        <v>42017</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="30">
+        <v>42017</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="31">
+        <v>42017</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="30">
+        <v>42019</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="31">
+        <v>42019</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="30">
+        <v>42019</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="31">
+        <v>42019</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="30">
+        <v>42019</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="31">
+        <v>42019</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="30">
+        <v>42020</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="31">
+        <v>42020</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="30">
+        <v>42020</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="31">
+        <v>42020</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="30">
+        <v>42020</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="31">
+        <v>42020</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="30"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="25">
+        <v>42023</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="25">
+        <v>42023</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="25">
+        <v>42023</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="25">
+        <v>42023</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="25">
+        <v>42023</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="25">
+        <v>42024</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="25">
+        <v>42024</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="25">
+        <v>42024</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="25">
+        <v>42024</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="25">
+        <v>42024</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="25">
+        <v>42026</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="25">
+        <v>42026</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="25">
+        <v>42026</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="25">
+        <v>42026</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="25">
+        <v>42026</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="25">
+        <v>42027</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="25">
+        <v>42027</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="25">
+        <v>42027</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="25">
+        <v>42027</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="25">
+        <v>42027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>